--- a/generate_daily.xlsx
+++ b/generate_daily.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Centurion</t>
   </si>
@@ -81,36 +81,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>2017-07-09 22:20:00</t>
-  </si>
-  <si>
-    <t>2017-07-09 23:20:00</t>
-  </si>
-  <si>
-    <t>Zivanovic</t>
-  </si>
-  <si>
-    <t>Nikola</t>
-  </si>
-  <si>
-    <t>Mirko</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Boat Rent</t>
-  </si>
-  <si>
-    <t>200 Horse Power - 60 Minutes</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>1993-04-24</t>
-  </si>
-  <si>
     <t>Family/Single</t>
   </si>
   <si>
@@ -133,18 +103,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>064485564</t>
-  </si>
-  <si>
-    <t>06544788</t>
-  </si>
-  <si>
-    <t>Sutjeska 76</t>
   </si>
 </sst>
 </file>
@@ -495,7 +453,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M352"/>
+  <dimension ref="A1:M351"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A351" sqref="A351"/>
@@ -503,17 +461,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="11.711426" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -980,44 +938,6 @@
       </c>
       <c r="M351" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13">
-      <c r="A352" t="s">
-        <v>21</v>
-      </c>
-      <c r="B352" t="s">
-        <v>22</v>
-      </c>
-      <c r="C352" t="s">
-        <v>23</v>
-      </c>
-      <c r="D352" t="s">
-        <v>24</v>
-      </c>
-      <c r="E352" t="s">
-        <v>25</v>
-      </c>
-      <c r="F352" t="s">
-        <v>26</v>
-      </c>
-      <c r="G352" t="s">
-        <v>27</v>
-      </c>
-      <c r="H352" t="s">
-        <v>28</v>
-      </c>
-      <c r="J352" t="s">
-        <v>29</v>
-      </c>
-      <c r="K352" t="s">
-        <v>30</v>
-      </c>
-      <c r="L352">
-        <v>178</v>
-      </c>
-      <c r="M352">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +961,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1050,11 +970,11 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
@@ -1087,56 +1007,36 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
